--- a/out.xlsx
+++ b/out.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ramon\Desktop\cursojs\AdminR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Users\Ramon\Desktop\cursojs\AdminR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -369,7 +369,61 @@
     <t xml:space="preserve">Fecha: </t>
   </si>
   <si>
+    <t xml:space="preserve">Nº:01118601NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha:2020-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naves</t>
+  </si>
+  <si>
     <t xml:space="preserve">Demo Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03921841L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C/something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4567981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdasd@fasd.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRIMACIÓN Y JUNTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES maybe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalizador 5 a 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGS 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINA DE CUARZO </t>
   </si>
 </sst>
 </file>
@@ -698,6 +752,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFFFF"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills>
     <fill>
@@ -730,6 +812,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF"/>
+      </patternFill>
+    </fill>
+    <fill/>
   </fills>
   <borders>
     <border>
@@ -921,6 +1014,27 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1189,14 +1303,27 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="43" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="45" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2214,14 +2341,14 @@
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="47" style="7" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" style="11" customWidth="1"/>
@@ -2237,16 +2364,18 @@
     </row>
     <row r="5" spans="2:10" ht="21" x14ac:dyDescent="0.35">
       <c r="E5" t="s" s="14">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.35">
       <c r="E6" t="s" s="14">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E7" s="203"/>
+      <c r="E7" t="s" s="211">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B8" t="s" s="22">
@@ -2259,12 +2388,14 @@
         <v>13</v>
       </c>
       <c r="C9" t="s" s="40">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s" s="40">
         <v>17</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" t="s" s="41">
+        <v>118</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="J9" s="67"/>
     </row>
@@ -2272,11 +2403,15 @@
       <c r="B10" t="s" s="40">
         <v>12</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" t="s" s="40">
+        <v>119</v>
+      </c>
       <c r="D10" t="s" s="40">
         <v>18</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" t="s" s="41">
+        <v>120</v>
+      </c>
       <c r="F10" s="25"/>
       <c r="J10" s="67"/>
     </row>
@@ -2284,11 +2419,15 @@
       <c r="B11" t="s" s="40">
         <v>14</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" t="s" s="40">
+        <v>121</v>
+      </c>
       <c r="D11" t="s" s="40">
         <v>19</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" t="s" s="41">
+        <v>121</v>
+      </c>
       <c r="F11" s="25"/>
       <c r="I11"/>
       <c r="J11" s="67"/>
@@ -2297,12 +2436,16 @@
       <c r="B12" t="s" s="40">
         <v>15</v>
       </c>
-      <c r="C12" s="204"/>
-      <c r="D12" t="s" s="204">
+      <c r="C12" t="s" s="203">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s" s="203">
         <v>20</v>
       </c>
-      <c r="E12" s="208"/>
-      <c r="F12" s="206"/>
+      <c r="E12" t="s" s="206">
+        <v>123</v>
+      </c>
+      <c r="F12" s="205"/>
       <c r="I12"/>
       <c r="J12" s="67"/>
     </row>
@@ -2310,22 +2453,28 @@
       <c r="B13" t="s" s="40">
         <v>16</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" t="s" s="204">
+      <c r="C13" t="s" s="203">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s" s="203">
         <v>21</v>
       </c>
-      <c r="E13" s="207"/>
-      <c r="F13" s="206"/>
+      <c r="E13" t="s" s="207">
+        <v>125</v>
+      </c>
+      <c r="F13" s="205"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" t="s" s="204">
+      <c r="B14" t="s" s="203">
         <v>111</v>
       </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
+      <c r="C14" t="s" s="204">
+        <v>126</v>
+      </c>
+      <c r="D14" s="204"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="205"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -2358,7 +2507,9 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
+      <c r="B19" t="s" s="212">
+        <v>127</v>
+      </c>
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="8"/>
@@ -2367,13 +2518,26 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="202"/>
+      <c r="B20" t="s" s="202">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>129</v>
+      </c>
+      <c r="D20" s="202">
+        <v>3</v>
+      </c>
+      <c r="E20" s="209">
+        <v>5</v>
+      </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F33" si="0">IF(D20&lt;&gt;"",D20*E20,"")</f>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
+      <c r="B21" t="s" s="213">
+        <v>130</v>
+      </c>
       <c r="C21" s="30"/>
       <c r="D21" s="31"/>
       <c r="E21" s="8"/>
@@ -2382,16 +2546,27 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="8"/>
+      <c r="B22" t="s" s="30">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s" s="30">
+        <v>132</v>
+      </c>
+      <c r="D22" s="31">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>49</v>
+      </c>
       <c r="F22" s="8">
         <f>IF(D22&lt;&gt;"",D22*E22,"")</f>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="202"/>
       <c r="C23" s="202"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="209"/>
       <c r="F23" s="8">
         <f>IF(D23&lt;&gt;"",D23*E23,"")</f>
       </c>
@@ -2415,7 +2590,10 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="202"/>
       <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="209"/>
       <c r="F26" s="8">
         <f t="shared" si="0"/>
       </c>
@@ -2423,7 +2601,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
-      <c r="C27"/>
+      <c r="C27" s="210"/>
       <c r="D27" s="31"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
@@ -2440,7 +2618,10 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="202"/>
       <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="209"/>
       <c r="F29" s="8">
         <f t="shared" si="0"/>
       </c>
@@ -2464,14 +2645,17 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="202"/>
       <c r="C32" s="202"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="209"/>
       <c r="F32" s="8">
         <f t="shared" si="0"/>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
-      <c r="C33"/>
+      <c r="C33" s="210"/>
       <c r="D33" s="31"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
@@ -2526,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="35">
-        <v>17</v>
+        <v>0.33</v>
       </c>
       <c r="F37" s="35">
-        <f>D37*E37</f>
+        <f>IF(D37*E37&lt;17, 17,D37*E37)</f>
       </c>
     </row>
     <row r="38" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">

--- a/out.xlsx
+++ b/out.xlsx
@@ -372,7 +372,7 @@
     <t xml:space="preserve">Nº:01118601NN</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha:2020-03-21</t>
+    <t xml:space="preserve">Fecha:2020-03-19</t>
   </si>
   <si>
     <t xml:space="preserve">Naves</t>
@@ -424,6 +424,51 @@
   </si>
   <si>
     <t xml:space="preserve">HARINA DE CUARZO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISOLVENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNA MANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C b</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF0000"/>
+        <b/>
+        <sz val="12"/>
+      </rPr>
+      <t>GRISES</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="000000"/>
+        <b/>
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve"> 100% Sólidos (Primera y Segunda Mano)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SIN CARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E o</t>
   </si>
 </sst>
 </file>
@@ -780,6 +825,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <b/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFFFF"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFFFF"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFFFF"/>
+    </font>
   </fonts>
   <fills>
     <fill>
@@ -823,6 +902,27 @@
       </patternFill>
     </fill>
     <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders>
     <border>
@@ -1014,6 +1114,41 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1324,6 +1459,11 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="8" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2563,7 +2703,9 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="202"/>
+      <c r="B23" t="s" s="214">
+        <v>133</v>
+      </c>
       <c r="C23" s="202"/>
       <c r="D23" s="202"/>
       <c r="E23" s="209"/>
@@ -2572,16 +2714,26 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="8"/>
+      <c r="B24" t="s" s="30">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s" s="30">
+        <v>134</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
       <c r="F24" s="8">
         <f t="shared" si="0"/>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
+      <c r="B25" t="s" s="215">
+        <v>135</v>
+      </c>
       <c r="C25" s="30"/>
       <c r="D25" s="31"/>
       <c r="E25" s="8"/>
@@ -2590,18 +2742,30 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="209"/>
+      <c r="B26" t="s" s="202">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s" s="202">
+        <v>136</v>
+      </c>
+      <c r="D26" s="202">
+        <v>2</v>
+      </c>
+      <c r="E26" s="209">
+        <v>1</v>
+      </c>
       <c r="F26" s="8">
         <f t="shared" si="0"/>
       </c>
       <c r="H26" s="198"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="210"/>
+      <c r="B27" t="s" s="216">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s" s="210">
+        <v>137</v>
+      </c>
       <c r="D27" s="31"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
@@ -2609,7 +2773,9 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
+      <c r="B28" t="s" s="217">
+        <v>138</v>
+      </c>
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="8"/>
@@ -2618,16 +2784,26 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="202"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="209"/>
+      <c r="B29" t="s" s="202">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s" s="202">
+        <v>140</v>
+      </c>
+      <c r="D29" s="202">
+        <v>2</v>
+      </c>
+      <c r="E29" s="209">
+        <v>1</v>
+      </c>
       <c r="F29" s="8">
         <f t="shared" si="0"/>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
+      <c r="B30" t="s" s="218">
+        <v>141</v>
+      </c>
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="8"/>
@@ -2636,10 +2812,18 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="8"/>
+      <c r="B31" t="s" s="30">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s" s="30">
+        <v>142</v>
+      </c>
+      <c r="D31" s="31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
       <c r="F31" s="8">
         <f t="shared" si="0"/>
       </c>
@@ -2707,7 +2891,7 @@
         <v>112</v>
       </c>
       <c r="D37" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="35">
         <v>0.33</v>

--- a/out.xlsx
+++ b/out.xlsx
@@ -369,10 +369,10 @@
     <t xml:space="preserve">Fecha: </t>
   </si>
   <si>
-    <t xml:space="preserve">Nº:01118601NN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha:2020-03-19</t>
+    <t xml:space="preserve">Nº:01118605RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha:2020-10-21</t>
   </si>
   <si>
     <t xml:space="preserve">Naves</t>
@@ -396,7 +396,7 @@
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
-    <t xml:space="preserve">4567981</t>
+    <t xml:space="preserve">456798</t>
   </si>
   <si>
     <t xml:space="preserve">Mr. Demo</t>
@@ -414,7 +414,7 @@
     <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t xml:space="preserve">YES maybe</t>
+    <t xml:space="preserve">A a</t>
   </si>
   <si>
     <t xml:space="preserve">Catalizador 5 a 1</t>
@@ -429,13 +429,13 @@
     <t xml:space="preserve">DISOLVENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">B a</t>
-  </si>
-  <si>
     <t xml:space="preserve">UNA MANO</t>
   </si>
   <si>
-    <t xml:space="preserve">C b</t>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C c</t>
   </si>
   <si>
     <r>
@@ -462,13 +462,10 @@
     <t xml:space="preserve">o</t>
   </si>
   <si>
-    <t xml:space="preserve">D o</t>
+    <t xml:space="preserve">O o</t>
   </si>
   <si>
     <t xml:space="preserve">3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E o</t>
   </si>
 </sst>
 </file>
@@ -846,6 +843,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -855,9 +859,10 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FFFFFF"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills>
@@ -913,6 +918,9 @@
       </patternFill>
     </fill>
     <fill/>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0000FF"/>
@@ -1114,6 +1122,13 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1462,8 +1477,9 @@
     <xf numFmtId="0" fontId="48" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="49" fillId="10" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
     <xf numFmtId="0" fontId="50" fillId="11" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="12" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="52" fillId="13" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2665,10 +2681,10 @@
         <v>129</v>
       </c>
       <c r="D20" s="202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="209">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20:F33" si="0">IF(D20&lt;&gt;"",D20*E20,"")</f>
@@ -2718,7 +2734,7 @@
         <v>128</v>
       </c>
       <c r="C24" t="s" s="30">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D24" s="31">
         <v>1</v>
@@ -2732,7 +2748,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s" s="215">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="31"/>
@@ -2743,16 +2759,16 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s" s="202">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s" s="202">
         <v>136</v>
       </c>
       <c r="D26" s="202">
+        <v>3</v>
+      </c>
+      <c r="E26" s="209">
         <v>2</v>
-      </c>
-      <c r="E26" s="209">
-        <v>1</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="0"/>
@@ -2773,36 +2789,38 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s" s="217">
-        <v>138</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="8"/>
+      <c r="B28" t="s" s="30">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s" s="30">
+        <v>136</v>
+      </c>
+      <c r="D28" s="31">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
       <c r="F28" s="8">
         <f t="shared" si="0"/>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s" s="202">
-        <v>139</v>
+      <c r="B29" t="s" s="217">
+        <v>130</v>
       </c>
       <c r="C29" t="s" s="202">
-        <v>140</v>
-      </c>
-      <c r="D29" s="202">
-        <v>2</v>
-      </c>
-      <c r="E29" s="209">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D29" s="202"/>
+      <c r="E29" s="209"/>
       <c r="F29" s="8">
         <f t="shared" si="0"/>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s" s="218">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
@@ -2816,7 +2834,7 @@
         <v>139</v>
       </c>
       <c r="C31" t="s" s="30">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D31" s="31">
         <v>2</v>
@@ -2829,7 +2847,9 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="202"/>
+      <c r="B32" t="s" s="219">
+        <v>141</v>
+      </c>
       <c r="C32" s="202"/>
       <c r="D32" s="202"/>
       <c r="E32" s="209"/>
@@ -2838,10 +2858,18 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="30"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="8"/>
+      <c r="B33" t="s" s="30">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s" s="210">
+        <v>140</v>
+      </c>
+      <c r="D33" s="31">
+        <v>2</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
       <c r="F33" s="8">
         <f t="shared" si="0"/>
       </c>

--- a/out.xlsx
+++ b/out.xlsx
@@ -369,7 +369,7 @@
     <t xml:space="preserve">Fecha: </t>
   </si>
   <si>
-    <t xml:space="preserve">Nº:01118605RN</t>
+    <t xml:space="preserve">Nº:01118601111RR</t>
   </si>
   <si>
     <t xml:space="preserve">Fecha:2020-10-21</t>
